--- a/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="278">
   <si>
     <t>Sezione</t>
   </si>
@@ -777,18 +777,6 @@
   </si>
   <si>
     <t>numeroTestimoni</t>
-  </si>
-  <si>
-    <t>Presente decreto che rigetta l'opposizione</t>
-  </si>
-  <si>
-    <t>rigettoOpposizione</t>
-  </si>
-  <si>
-    <t>Presente provvedimento che estingue il giudizio di opposizione</t>
-  </si>
-  <si>
-    <t>estintaOpposizione</t>
   </si>
   <si>
     <t>Difetto di età</t>
@@ -916,7 +904,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H501"/>
+  <dimension ref="A1:H499"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -12258,7 +12246,7 @@
         <v>22</v>
       </c>
       <c r="D493" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="E493" s="2" t="s">
         <v>262</v>
@@ -12281,7 +12269,7 @@
         <v>22</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="E494" s="2" t="s">
         <v>264</v>
@@ -12301,10 +12289,10 @@
         <v>265</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="E495" s="2" t="s">
         <v>266</v>
@@ -12324,10 +12312,10 @@
         <v>267</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>187</v>
+        <v>55</v>
       </c>
       <c r="E496" s="2" t="s">
         <v>268</v>
@@ -12341,117 +12329,71 @@
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>55</v>
+        <v>271</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>46</v>
+        <v>273</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="B498" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D498" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C498" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D498" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E498" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>46</v>
+        <v>273</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E499" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G499" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B499" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C499" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D499" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E499" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F499" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G499" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D500" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E500" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F500" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G500" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B501" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C501" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D501" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E501" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F501" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G501" s="2" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
@@ -4101,7 +4101,7 @@
         <v>69</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>129</v>
@@ -4630,7 +4630,7 @@
         <v>69</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>132</v>
@@ -5159,7 +5159,7 @@
         <v>69</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>135</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
@@ -1531,7 +1531,7 @@
         <v>40</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
@@ -12051,7 +12051,7 @@
         <v>82</v>
       </c>
       <c r="F484" s="2" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="G484" s="2" t="s">
         <v>242</v>
@@ -12120,7 +12120,7 @@
         <v>88</v>
       </c>
       <c r="F487" s="2" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="G487" s="2" t="s">
         <v>242</v>
@@ -12258,7 +12258,7 @@
         <v>100</v>
       </c>
       <c r="F493" s="2" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="G493" s="2" t="s">
         <v>242</v>
@@ -12327,7 +12327,7 @@
         <v>106</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>10</v>
+        <v>241</v>
       </c>
       <c r="G496" s="2" t="s">
         <v>242</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3836" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3850" uniqueCount="287">
   <si>
     <t>Sezione</t>
   </si>
@@ -510,6 +510,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -925,7 +931,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H548"/>
+  <dimension ref="A1:H550"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6439,19 +6445,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>10</v>
@@ -6462,19 +6468,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>10</v>
@@ -6485,19 +6491,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>10</v>
@@ -6508,19 +6514,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>10</v>
@@ -6531,19 +6537,19 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>10</v>
@@ -6554,19 +6560,19 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>10</v>
@@ -6577,19 +6583,19 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>10</v>
@@ -6600,19 +6606,19 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>10</v>
@@ -6623,19 +6629,19 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>10</v>
@@ -6646,19 +6652,19 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>10</v>
@@ -6669,19 +6675,19 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>10</v>
@@ -6692,19 +6698,19 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>10</v>
@@ -6718,22 +6724,22 @@
         <v>170</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C252" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="E252" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
     </row>
     <row r="253">
@@ -6741,3581 +6747,3581 @@
         <v>170</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C260" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D260" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E260" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="E260" s="2" t="s">
+      <c r="F260" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G260" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G260" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D266" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D266" s="2" t="s">
+      <c r="E266" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D267" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B267" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D267" s="2" t="s">
+      <c r="E267" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D273" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D273" s="2" t="s">
+      <c r="E273" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E273" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F273" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G273" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D274" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="E274" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G274" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B275" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D275" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F275" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>67</v>
+        <v>206</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B279" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="C279" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D279" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E279" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F279" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B304" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D304" s="2" t="s">
+      <c r="E304" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F304" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G304" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D305" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B305" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D305" s="2" t="s">
+      <c r="E305" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G305" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E305" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F305" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G305" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G325" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G326" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G328" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D330" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B330" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D330" s="2" t="s">
+      <c r="E330" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G330" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E330" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G330" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D331" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B331" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D331" s="2" t="s">
+      <c r="E331" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G331" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="E331" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G331" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F332" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F333" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G333" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F334" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F336" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F338" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F339" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F340" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F342" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F343" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F345" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F348" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F349" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F350" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F351" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G351" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F352" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F354" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F355" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D356" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B356" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D356" s="2" t="s">
+      <c r="E356" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G356" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="E356" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F356" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G356" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D357" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B357" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D357" s="2" t="s">
+      <c r="E357" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G357" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="E357" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F357" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G357" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F358" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F360" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F362" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F365" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F366" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F367" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F368" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F369" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F370" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G370" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F371" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G371" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F372" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F373" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F374" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F375" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F376" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F377" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F378" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F379" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F380" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F381" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D382" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B382" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D382" s="2" t="s">
+      <c r="E382" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G382" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="E382" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F382" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G382" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D383" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B383" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D383" s="2" t="s">
+      <c r="E383" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G383" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="E383" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F383" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G383" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F384" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F385" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F386" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F387" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F388" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F389" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F390" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G390" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F391" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G391" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F392" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F393" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F394" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F395" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F396" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F397" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F398" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F399" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F400" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F401" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E402" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F402" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F403" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F404" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F405" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F406" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F407" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D408" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B408" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D408" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E408" s="2" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="F408" s="2" t="s">
         <v>10</v>
@@ -10326,19 +10332,19 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D409" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B409" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D409" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E409" s="2" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F409" s="2" t="s">
         <v>10</v>
@@ -10349,554 +10355,554 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D410" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B410" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C410" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E410" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F410" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D411" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B411" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D411" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E411" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F411" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D412" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B412" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D412" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E412" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F412" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D413" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B413" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D413" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E413" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F413" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D414" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B414" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D414" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E414" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F414" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D415" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B415" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D415" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E415" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F415" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D416" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B416" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D416" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E416" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F416" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D417" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B417" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E417" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F417" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D418" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B418" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D418" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E418" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F418" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D419" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B419" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D419" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E419" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F419" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D420" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B420" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D420" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E420" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F420" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D421" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B421" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D421" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E421" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F421" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D422" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B422" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D422" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E422" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F422" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D423" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B423" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D423" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E423" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F423" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D424" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B424" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E424" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F424" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D425" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B425" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D425" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E425" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F425" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D426" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B426" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D426" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E426" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F426" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D427" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B427" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D427" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E427" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F427" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D428" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B428" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C428" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D428" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E428" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F428" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D429" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B429" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D429" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E429" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F429" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D430" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B430" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D430" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E430" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F430" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D431" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B431" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E431" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F431" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D432" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B432" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E432" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D433" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B433" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D433" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="E433" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F433" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="434">
@@ -10904,22 +10910,22 @@
         <v>224</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D434" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G434" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="E434" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F434" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G434" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="435">
@@ -10927,752 +10933,752 @@
         <v>224</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D435" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G435" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="E435" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F435" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G435" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F437" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F438" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F439" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D441" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B441" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D441" s="2" t="s">
+      <c r="E441" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G441" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="E441" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F441" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G441" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D442" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B442" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C442" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D442" s="2" t="s">
+      <c r="E442" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G442" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="E442" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F442" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G442" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F443" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D444" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E444" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F444" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D445" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E445" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F445" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D446" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F446" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E447" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F447" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E448" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F448" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D449" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D450" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E450" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F450" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D451" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E451" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F451" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D452" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E452" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D453" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E453" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F453" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E454" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F454" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E455" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F455" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E456" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F456" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D457" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F457" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E458" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F458" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F459" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E460" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F460" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D461" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E461" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F461" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D462" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E462" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F462" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D463" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E463" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F463" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F464" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F465" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E466" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F466" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D467" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B467" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D467" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E467" s="2" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="F467" s="2" t="s">
         <v>10</v>
@@ -11683,19 +11689,19 @@
     </row>
     <row r="468">
       <c r="A468" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D468" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B468" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D468" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E468" s="2" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>10</v>
@@ -11706,554 +11712,554 @@
     </row>
     <row r="469">
       <c r="A469" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D469" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B469" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E469" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D470" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B470" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D470" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E470" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D471" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B471" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D471" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E471" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F471" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D472" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B472" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D472" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E472" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F472" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D473" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B473" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D473" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E473" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F473" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D474" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B474" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D474" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E474" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F474" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D475" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B475" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D475" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E475" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F475" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D476" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B476" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D476" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E476" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F476" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D477" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B477" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D477" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E477" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F477" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D478" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B478" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D478" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E478" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D479" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B479" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D479" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E479" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F479" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D480" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B480" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C480" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D480" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E480" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F480" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D481" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B481" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C481" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D481" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E481" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D482" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B482" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C482" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D482" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E482" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D483" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B483" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C483" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D483" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E483" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F483" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D484" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B484" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D484" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E484" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F484" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D485" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B485" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D485" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E485" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F485" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D486" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B486" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C486" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D486" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E486" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F486" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G486" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D487" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B487" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C487" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D487" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E487" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F487" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G487" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D488" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B488" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C488" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D488" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E488" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F488" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D489" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B489" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C489" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D489" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E489" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F489" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D490" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B490" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C490" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D490" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E490" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F490" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D491" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B491" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D491" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E491" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F491" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D492" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B492" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D492" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="E492" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F492" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="493">
@@ -12261,22 +12267,22 @@
         <v>232</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>171</v>
+        <v>114</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D493" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G493" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E493" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F493" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G493" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="494">
@@ -12284,200 +12290,200 @@
         <v>232</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D494" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G494" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E494" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F494" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G494" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F495" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E496" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F496" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E497" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F497" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E498" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F498" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E499" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F499" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D500" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B500" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D500" s="2" t="s">
+      <c r="E500" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G500" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E500" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F500" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G500" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D501" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B501" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C501" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D501" s="2" t="s">
+      <c r="E501" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G501" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="E501" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F501" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G501" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D502" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E502" s="2" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="F502" s="2" t="s">
         <v>10</v>
@@ -12488,22 +12494,22 @@
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D503" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F503" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G503" s="2" t="s">
         <v>47</v>
@@ -12511,19 +12517,19 @@
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>173</v>
+        <v>242</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>10</v>
@@ -12534,22 +12540,22 @@
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D505" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E505" s="2" t="s">
         <v>243</v>
       </c>
       <c r="F505" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G505" s="2" t="s">
         <v>47</v>
@@ -12557,19 +12563,19 @@
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B506" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E506" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="C506" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D506" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E506" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="F506" s="2" t="s">
         <v>10</v>
@@ -12580,654 +12586,654 @@
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B507" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B507" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C507" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D507" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E507" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E507" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="F507" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G507" s="2" t="s">
-        <v>247</v>
+        <v>47</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D508" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E508" s="2" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="F508" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>247</v>
+        <v>47</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F510" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D511" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D512" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D513" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D514" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D515" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D516" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F519" s="2" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F522" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F523" s="2" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F526" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C529" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>246</v>
+        <v>10</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B533" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D533" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E533" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F533" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G533" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="C533" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D533" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E533" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F533" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G533" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>251</v>
+        <v>116</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>252</v>
+        <v>117</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>253</v>
+        <v>10</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>47</v>
+        <v>249</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C535" s="2" t="s">
         <v>22</v>
@@ -13236,7 +13242,7 @@
         <v>56</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>10</v>
@@ -13247,10 +13253,10 @@
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>9</v>
@@ -13259,10 +13265,10 @@
         <v>56</v>
       </c>
       <c r="E536" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F536" s="2" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="G536" s="2" t="s">
         <v>47</v>
@@ -13270,19 +13276,19 @@
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E537" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>10</v>
@@ -13293,22 +13299,22 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D538" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E538" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G538" s="2" t="s">
         <v>47</v>
@@ -13316,19 +13322,19 @@
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D539" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E539" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F539" s="2" t="s">
         <v>10</v>
@@ -13339,10 +13345,10 @@
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>22</v>
@@ -13351,7 +13357,7 @@
         <v>56</v>
       </c>
       <c r="E540" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>10</v>
@@ -13362,10 +13368,10 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C541" s="2" t="s">
         <v>22</v>
@@ -13374,7 +13380,7 @@
         <v>56</v>
       </c>
       <c r="E541" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F541" s="2" t="s">
         <v>10</v>
@@ -13385,19 +13391,19 @@
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C542" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D542" s="2" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="E542" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>10</v>
@@ -13408,19 +13414,19 @@
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D543" s="2" t="s">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>10</v>
@@ -13431,19 +13437,19 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D544" s="2" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F544" s="2" t="s">
         <v>10</v>
@@ -13454,19 +13460,19 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F545" s="2" t="s">
         <v>10</v>
@@ -13477,71 +13483,117 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>278</v>
+        <v>56</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F546" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G546" s="2" t="s">
-        <v>280</v>
+        <v>47</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B547" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B547" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="C547" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>278</v>
+        <v>56</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G547" s="2" t="s">
-        <v>280</v>
+        <v>47</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B548" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D548" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E548" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F548" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G548" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B549" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C548" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D548" s="2" t="s">
+      <c r="C549" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D549" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E549" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F549" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G549" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E548" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="F548" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G548" s="2" t="s">
+      <c r="B550" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D550" s="2" t="s">
         <v>280</v>
+      </c>
+      <c r="E550" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F550" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G550" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3857" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="292">
   <si>
     <t>Sezione</t>
   </si>
@@ -756,6 +756,15 @@
   </si>
   <si>
     <t>descrizione</t>
+  </si>
+  <si>
+    <t>Estremi Certificazione 2</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.attoEstero</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -937,7 +946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H551"/>
+  <dimension ref="A1:H558"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -12664,22 +12673,22 @@
         <v>248</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D510" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="F510" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G510" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="G510" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="511">
@@ -12687,7 +12696,7 @@
         <v>248</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>22</v>
@@ -12696,13 +12705,13 @@
         <v>249</v>
       </c>
       <c r="E511" s="2" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G511" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="512">
@@ -12710,22 +12719,22 @@
         <v>248</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D512" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E512" s="2" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="513">
@@ -12733,22 +12742,22 @@
         <v>248</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D513" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E513" s="2" t="s">
-        <v>75</v>
+        <v>245</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="514">
@@ -12756,7 +12765,7 @@
         <v>248</v>
       </c>
       <c r="B514" s="2" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="C514" s="2" t="s">
         <v>22</v>
@@ -12765,13 +12774,13 @@
         <v>249</v>
       </c>
       <c r="E514" s="2" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="515">
@@ -12779,7 +12788,7 @@
         <v>248</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>78</v>
+        <v>246</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>22</v>
@@ -12788,13 +12797,13 @@
         <v>249</v>
       </c>
       <c r="E515" s="2" t="s">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="516">
@@ -12802,7 +12811,7 @@
         <v>248</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="C516" s="2" t="s">
         <v>22</v>
@@ -12811,619 +12820,619 @@
         <v>249</v>
       </c>
       <c r="E516" s="2" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G516" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D519" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E519" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G519" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D520" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E520" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D521" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E521" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F521" s="2" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D522" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E522" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G522" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C523" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D523" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E523" s="2" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G523" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D524" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E524" s="2" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="F524" s="2" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G524" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D525" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E525" s="2" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="F525" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G525" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D526" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E526" s="2" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D527" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E527" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F527" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G527" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D528" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E528" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F528" s="2" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="G528" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D529" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E529" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F529" s="2" t="s">
-        <v>250</v>
+        <v>10</v>
       </c>
       <c r="G529" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D530" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E530" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G530" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D531" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E531" s="2" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F531" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G531" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D532" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E532" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="F532" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G532" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E533" s="2" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G533" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D534" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E534" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="F534" s="2" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="G534" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D535" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E535" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G535" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D536" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="E536" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F536" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C536" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E536" s="2" t="s">
+      <c r="G536" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="F536" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G536" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D537" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B537" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C537" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E537" s="2" t="s">
-        <v>256</v>
+        <v>109</v>
       </c>
       <c r="F537" s="2" t="s">
-        <v>257</v>
+        <v>10</v>
       </c>
       <c r="G537" s="2" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D538" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B538" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C538" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D538" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E538" s="2" t="s">
-        <v>259</v>
+        <v>111</v>
       </c>
       <c r="F538" s="2" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="G538" s="2" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D539" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B539" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C539" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D539" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E539" s="2" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>36</v>
+        <v>253</v>
       </c>
       <c r="G539" s="2" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D540" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B540" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C540" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D540" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E540" s="2" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G540" s="2" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D541" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B541" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C541" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D541" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E541" s="2" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="F541" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G541" s="2" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D542" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B542" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C542" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D542" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="E542" s="2" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="F542" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G542" s="2" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>22</v>
@@ -13432,7 +13441,7 @@
         <v>56</v>
       </c>
       <c r="E543" s="2" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="F543" s="2" t="s">
         <v>10</v>
@@ -13443,22 +13452,22 @@
     </row>
     <row r="544">
       <c r="A544" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D544" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E544" s="2" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="F544" s="2" t="s">
-        <v>10</v>
+        <v>260</v>
       </c>
       <c r="G544" s="2" t="s">
         <v>47</v>
@@ -13466,19 +13475,19 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C545" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D545" s="2" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="E545" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F545" s="2" t="s">
         <v>10</v>
@@ -13489,22 +13498,22 @@
     </row>
     <row r="546">
       <c r="A546" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D546" s="2" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="E546" s="2" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F546" s="2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G546" s="2" t="s">
         <v>47</v>
@@ -13512,19 +13521,19 @@
     </row>
     <row r="547">
       <c r="A547" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D547" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E547" s="2" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F547" s="2" t="s">
         <v>10</v>
@@ -13535,19 +13544,19 @@
     </row>
     <row r="548">
       <c r="A548" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D548" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E548" s="2" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F548" s="2" t="s">
         <v>10</v>
@@ -13558,71 +13567,232 @@
     </row>
     <row r="549">
       <c r="A549" s="2" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D549" s="2" t="s">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="E549" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="F549" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G549" s="2" t="s">
-        <v>284</v>
+        <v>47</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D550" s="2" t="s">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="E550" s="2" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="F550" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G550" s="2" t="s">
-        <v>284</v>
+        <v>47</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D551" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E551" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F551" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G551" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D552" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E552" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F552" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G552" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D553" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E553" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F553" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G553" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D554" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E554" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B551" s="2" t="s">
+      <c r="F554" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G554" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D555" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E555" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G555" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D556" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E556" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G556" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C551" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D551" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E551" s="2" t="s">
+    </row>
+    <row r="557">
+      <c r="A557" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B557" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F551" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G551" s="2" t="s">
-        <v>284</v>
+      <c r="C557" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D557" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E557" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F557" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G557" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D558" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G558" s="2" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
@@ -13113,7 +13113,7 @@
         <v>92</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D529" s="2" t="s">
         <v>252</v>
@@ -13136,7 +13136,7 @@
         <v>94</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>252</v>
@@ -13145,7 +13145,7 @@
         <v>95</v>
       </c>
       <c r="F530" s="2" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
       <c r="G530" s="2" t="s">
         <v>254</v>

--- a/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_019.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3899" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3906" uniqueCount="292">
   <si>
     <t>Sezione</t>
   </si>
@@ -882,6 +882,12 @@
   </si>
   <si>
     <t>testoAnnotazione</t>
+  </si>
+  <si>
+    <t>Data decorrenza</t>
+  </si>
+  <si>
+    <t>dataDecorrenza</t>
   </si>
 </sst>
 </file>
@@ -940,7 +946,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H557"/>
+  <dimension ref="A1:H558"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -13766,6 +13772,29 @@
         <v>285</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D558" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E558" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G558" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
